--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Online Art Gallery</t>
   </si>
@@ -35,99 +36,21 @@
     <t>type</t>
   </si>
   <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> varchar(255) </t>
-  </si>
-  <si>
-    <t>contact no</t>
-  </si>
-  <si>
     <t>ARTIST table</t>
   </si>
   <si>
-    <t>ADMIN table</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t xml:space="preserve"> Customer table</t>
   </si>
   <si>
-    <t>booked_date</t>
-  </si>
-  <si>
-    <t>varchar(225)</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email ID</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>email ID</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Firtst Name</t>
-  </si>
-  <si>
-    <t>int(pk)</t>
-  </si>
-  <si>
     <t>int (pk)</t>
   </si>
   <si>
-    <t>intpk</t>
-  </si>
-  <si>
     <t>ORDER table</t>
   </si>
   <si>
-    <t>order  ID</t>
-  </si>
-  <si>
-    <t>product ID</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
     <t>int (fk)</t>
   </si>
   <si>
@@ -137,34 +60,232 @@
     <t>Product table</t>
   </si>
   <si>
-    <t>Product Id</t>
-  </si>
-  <si>
-    <t>Product discription</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Product Price</t>
-  </si>
-  <si>
-    <t>category Id</t>
-  </si>
-  <si>
     <t xml:space="preserve"> int (fk)</t>
   </si>
   <si>
-    <t xml:space="preserve"> int (pk)</t>
-  </si>
-  <si>
     <t>Category table</t>
   </si>
   <si>
-    <t>Category Id</t>
-  </si>
-  <si>
-    <t>category Name</t>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Trasaction no</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>If registered then login</t>
+  </si>
+  <si>
+    <t>After login add product accourding to category</t>
+  </si>
+  <si>
+    <t>Modify the existing product if any modification required</t>
+  </si>
+  <si>
+    <t>Delete Existing product</t>
+  </si>
+  <si>
+    <t>genration of bill after confirmation of order</t>
+  </si>
+  <si>
+    <t>When customers orders the product that product should be deleted from the product table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int (pk)(AI)</t>
+  </si>
+  <si>
+    <t>Cart table</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Address table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flatNo</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>pinCode</t>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(10)NOT NULL </t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>productQty</t>
+  </si>
+  <si>
+    <t>totalPrice</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productDiscription</t>
+  </si>
+  <si>
+    <t>productImages</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>varbinary(max)</t>
+  </si>
+  <si>
+    <t>int(fk)</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>bookedDate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>varchar(15) (pk)NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(15) NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(10) NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(20) NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(15)NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(40)NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(10)NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(20)NOT NULL</t>
+  </si>
+  <si>
+    <t>decimal(2,1)NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(15)(fk)NOT NULL</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>signup</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>seller/buyer</t>
+  </si>
+  <si>
+    <t>userid,passwd,role</t>
+  </si>
+  <si>
+    <t>user Table</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>customerID</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>varchar(15) fk NOT NULL</t>
+  </si>
+  <si>
+    <t>ArtistID</t>
+  </si>
+  <si>
+    <t>ArtistId</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>User table</t>
+  </si>
+  <si>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -188,15 +309,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,11 +397,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -286,6 +435,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,499 +734,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="D10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
+      <c r="G21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="G22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
+      <c r="G23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="1"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="G24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>2</v>
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>2</v>
-      </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="15"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>3</v>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
+      <c r="D31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>3</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="D34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="G34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="G35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
+      <c r="B38" s="6"/>
+      <c r="G38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
@@ -1075,8 +1333,8 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
+    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
     </row>
@@ -1095,12 +1353,12 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1115,10 +1373,102 @@
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
   <si>
     <t>Online Art Gallery</t>
   </si>
@@ -54,39 +55,12 @@
     <t>Category table</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Normalization</t>
-  </si>
-  <si>
     <t>Artist</t>
   </si>
   <si>
-    <t>Trasaction no</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
-    <t>If registered then login</t>
-  </si>
-  <si>
-    <t>After login add product accourding to category</t>
-  </si>
-  <si>
-    <t>Modify the existing product if any modification required</t>
-  </si>
-  <si>
-    <t>Delete Existing product</t>
-  </si>
-  <si>
-    <t>genration of bill after confirmation of order</t>
-  </si>
-  <si>
-    <t>When customers orders the product that product should be deleted from the product table</t>
-  </si>
-  <si>
     <t>Cart table</t>
   </si>
   <si>
@@ -108,9 +82,6 @@
     <t>varchar(15)</t>
   </si>
   <si>
-    <t>Rating</t>
-  </si>
-  <si>
     <t>orderId</t>
   </si>
   <si>
@@ -132,9 +103,6 @@
     <t>productName</t>
   </si>
   <si>
-    <t>productDiscription</t>
-  </si>
-  <si>
     <t>productImages</t>
   </si>
   <si>
@@ -144,9 +112,6 @@
     <t>categoryId</t>
   </si>
   <si>
-    <t>varbinary(max)</t>
-  </si>
-  <si>
     <t>categoryName</t>
   </si>
   <si>
@@ -159,86 +124,248 @@
     <t>decimal(10,2)</t>
   </si>
   <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
     <t>varchar(500)</t>
   </si>
   <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>User table</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>pk, AI</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT NULL</t>
+  </si>
+  <si>
+    <t>pk,AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(15) </t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>decimal(2,1)</t>
+  </si>
+  <si>
+    <t>fk,NOT NULL</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int </t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>artistId</t>
+  </si>
+  <si>
+    <t>default (0.0)</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>artistUserId</t>
+  </si>
+  <si>
+    <t>productDescription</t>
+  </si>
+  <si>
+    <t>blob(500)</t>
+  </si>
+  <si>
+    <t>productID</t>
+  </si>
+  <si>
+    <t>cartId</t>
+  </si>
+  <si>
     <t>customerID</t>
   </si>
   <si>
-    <t>pk</t>
-  </si>
-  <si>
-    <t>ArtistID</t>
-  </si>
-  <si>
-    <t>ArtistId</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>User table</t>
-  </si>
-  <si>
-    <t>CustomerId</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>constraints</t>
-  </si>
-  <si>
-    <t>pk, AI</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOT NULL</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>pk,AI</t>
-  </si>
-  <si>
-    <t>fk, NOT NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(15) </t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
-    <t>decimal(2,1)</t>
-  </si>
-  <si>
-    <t>fk,NOT NULL</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> int </t>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>forgot Password</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>update Account</t>
+  </si>
+  <si>
+    <t>Add Product</t>
+  </si>
+  <si>
+    <t>Update Product</t>
+  </si>
+  <si>
+    <t>Delete Product</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>Search Product</t>
+  </si>
+  <si>
+    <t>Buy Product</t>
+  </si>
+  <si>
+    <t>Cancel Order</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Report Generation</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add/Remove to Cart </t>
+  </si>
+  <si>
+    <t>review rating</t>
+  </si>
+  <si>
+    <t>Genrate Bill</t>
+  </si>
+  <si>
+    <t>Prajwal</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>Ashwini</t>
+  </si>
+  <si>
+    <t>omkar</t>
+  </si>
+  <si>
+    <t>prajwal</t>
+  </si>
+  <si>
+    <t>ashwini</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Registration of artist using Registration form</t>
+  </si>
+  <si>
+    <t>Login artist using user id and password</t>
+  </si>
+  <si>
+    <t>redirect to change password page by asking userID</t>
+  </si>
+  <si>
+    <t>after updating password re directed to login page</t>
+  </si>
+  <si>
+    <t>edit name,email,contact no, address</t>
+  </si>
+  <si>
+    <t>Artist will add new product using add product form</t>
+  </si>
+  <si>
+    <t>Artist will Update product using update product form</t>
+  </si>
+  <si>
+    <t>Artist will delete product using delete product form</t>
+  </si>
+  <si>
+    <t>customer will search the products using category table</t>
+  </si>
+  <si>
+    <t>customer can add or Remove product to the cart and cart will be saved into the databse</t>
+  </si>
+  <si>
+    <t>Customer order will be placed and order added to order table and cart table will be cleared</t>
+  </si>
+  <si>
+    <t>ordered will be cancelled and product will be added into product table again</t>
+  </si>
+  <si>
+    <t>Login Customer using user id and password</t>
+  </si>
+  <si>
+    <t>Registration of Customer using Registration form</t>
+  </si>
+  <si>
+    <t>Login Admin using user id and password</t>
+  </si>
+  <si>
+    <t>bill will be displayed to the customer using bill page</t>
+  </si>
+  <si>
+    <t>maintain logs of customer and artist</t>
+  </si>
+  <si>
+    <t>Add or remove account</t>
+  </si>
+  <si>
+    <t>review the rating</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>loginId</t>
+  </si>
+  <si>
+    <t>pk,Ai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +404,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +431,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -423,11 +593,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -440,20 +838,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -469,6 +858,129 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,167 +1261,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N67"/>
+  <dimension ref="B1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="15" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:14" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+    </row>
+    <row r="3" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:14" s="28" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="2:14" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>61</v>
+      <c r="D16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -919,15 +1424,15 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -937,15 +1442,15 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>26</v>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -955,15 +1460,15 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -973,15 +1478,15 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>57</v>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -990,17 +1495,16 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>58</v>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1011,68 +1515,69 @@
       <c r="K22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="19" t="s">
+    <row r="23" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="2:14" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="2:14" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>61</v>
+      <c r="D27" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1082,15 +1587,15 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1100,15 +1605,15 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>26</v>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -1118,15 +1623,15 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1136,15 +1641,15 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>57</v>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -1154,15 +1659,15 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>58</v>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -1172,50 +1677,50 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="2:11" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="33" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="C35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1224,139 +1729,139 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="23" t="s">
+    <row r="39" spans="2:11" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="19" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="2:11" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="17" t="s">
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+    </row>
+    <row r="47" spans="2:11" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+      <c r="D47" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="19" t="s">
+    </row>
+    <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="2:11" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -1365,33 +1870,33 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>66</v>
+    <row r="53" spans="2:11" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -1401,15 +1906,15 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -1419,14 +1924,16 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="6"/>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -1435,14 +1942,52 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -1451,111 +1996,127 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="2:11" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
+    <row r="60" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:11" s="23" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C63" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="21" t="s">
+      <c r="D63" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>58</v>
+      <c r="C70" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1564,72 +2125,507 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="9.109375" style="34"/>
+    <col min="4" max="4" width="20.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" s="62" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E4" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="77"/>
+      <c r="C5" s="38">
+        <v>2</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="77"/>
+      <c r="C6" s="44">
+        <v>3</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="77"/>
+      <c r="C7" s="50">
+        <v>4</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="77"/>
+      <c r="C8" s="47">
+        <v>5</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="77"/>
+      <c r="C9" s="38">
+        <v>6</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="77"/>
+      <c r="C10" s="44">
+        <v>7</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="78"/>
+      <c r="C11" s="44">
+        <v>8</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="38">
+        <v>9</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="77"/>
+      <c r="C13" s="38">
+        <v>10</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="77"/>
+      <c r="C14" s="44">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D14" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="77"/>
+      <c r="C15" s="50">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="77"/>
+      <c r="C16" s="47">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D16" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="77"/>
+      <c r="C17" s="50">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D17" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="77"/>
+      <c r="C18" s="50">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D18" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="77"/>
+      <c r="C19" s="47">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D19" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="78"/>
+      <c r="C20" s="47">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D20" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="38">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="D21" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="77"/>
+      <c r="C22" s="44">
         <v>19</v>
       </c>
+      <c r="D22" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="77"/>
+      <c r="C23" s="50">
+        <v>20</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="77"/>
+      <c r="C24" s="50">
+        <v>21</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="77"/>
+      <c r="C25" s="47">
+        <v>22</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="77"/>
+      <c r="C26" s="44">
+        <v>23</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="80"/>
+      <c r="C27" s="40">
+        <v>24</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B21:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\OneDrive\Documents\OMKAR\C-DAC\March2022\Project\Online Art Gallary\OnlineArtGallery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\cdac2022\Project\OnlineArtGallery\OnlineArtGallery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
   <si>
     <t>Online Art Gallery</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>pk,Ai</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2127,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2174,6 +2177,9 @@
       <c r="F4" s="68" t="s">
         <v>82</v>
       </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="77"/>
@@ -2189,6 +2195,9 @@
       <c r="F5" s="69" t="s">
         <v>82</v>
       </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="77"/>
@@ -2249,6 +2258,9 @@
       <c r="F9" s="69" t="s">
         <v>82</v>
       </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="77"/>
@@ -2264,6 +2276,9 @@
       <c r="F10" s="70" t="s">
         <v>85</v>
       </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="78"/>
@@ -2279,7 +2294,9 @@
       <c r="F11" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="52" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="79" t="s">
@@ -2296,6 +2313,9 @@
       </c>
       <c r="F12" s="69" t="s">
         <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -2312,6 +2332,9 @@
       <c r="F13" s="69" t="s">
         <v>82</v>
       </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="77"/>
@@ -2372,6 +2395,9 @@
       <c r="F17" s="71" t="s">
         <v>83</v>
       </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="77"/>
@@ -2387,6 +2413,9 @@
       <c r="F18" s="71" t="s">
         <v>83</v>
       </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="77"/>
@@ -2434,6 +2463,9 @@
       <c r="F21" s="69" t="s">
         <v>86</v>
       </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="77"/>
@@ -2509,6 +2541,9 @@
       <c r="F26" s="70" t="s">
         <v>85</v>
       </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="80"/>
@@ -2523,6 +2558,9 @@
       </c>
       <c r="F27" s="73" t="s">
         <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
